--- a/REGULAR/OJT/SUMAONG, DANILO.xlsx
+++ b/REGULAR/OJT/SUMAONG, DANILO.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>PERIOD</t>
   </si>
@@ -308,6 +308,12 @@
   <si>
     <t>HALL OF JUSTICE</t>
   </si>
+  <si>
+    <t>12/22,26-29/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
@@ -543,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -723,6 +729,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1172,7 +1181,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1215,7 +1224,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1279,7 +1288,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1339,7 +1348,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1414,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1468,7 +1477,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1566,7 +1575,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1625,7 +1634,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1690,7 +1699,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,7 +1742,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1808,7 +1817,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1994,7 +2003,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2060,7 +2069,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2127,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2184,7 +2193,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2240,7 +2249,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2315,7 +2324,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,7 +2367,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2424,7 +2433,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2480,7 +2489,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2578,7 +2587,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2641,7 +2650,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3090,7 +3099,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A288" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D301" sqref="D301"/>
+      <selection pane="bottomLeft" activeCell="I297" sqref="I297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3253,7 +3262,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>211.125</v>
+        <v>216.125</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3263,7 +3272,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>333.125</v>
+        <v>343.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -9269,13 +9278,15 @@
         <v>45017</v>
       </c>
       <c r="B301" s="20"/>
-      <c r="C301" s="13"/>
+      <c r="C301" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D301" s="39"/>
       <c r="E301" s="9"/>
       <c r="F301" s="20"/>
-      <c r="G301" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G301" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H301" s="39"/>
       <c r="I301" s="9"/>
@@ -9287,13 +9298,15 @@
         <v>45047</v>
       </c>
       <c r="B302" s="20"/>
-      <c r="C302" s="13"/>
+      <c r="C302" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D302" s="39"/>
       <c r="E302" s="9"/>
       <c r="F302" s="20"/>
-      <c r="G302" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G302" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H302" s="39"/>
       <c r="I302" s="9"/>
@@ -9305,13 +9318,15 @@
         <v>45078</v>
       </c>
       <c r="B303" s="20"/>
-      <c r="C303" s="13"/>
+      <c r="C303" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D303" s="39"/>
       <c r="E303" s="9"/>
       <c r="F303" s="20"/>
-      <c r="G303" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G303" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H303" s="39"/>
       <c r="I303" s="9"/>
@@ -9323,13 +9338,15 @@
         <v>45108</v>
       </c>
       <c r="B304" s="20"/>
-      <c r="C304" s="13"/>
+      <c r="C304" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D304" s="39"/>
       <c r="E304" s="9"/>
       <c r="F304" s="20"/>
-      <c r="G304" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G304" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H304" s="39"/>
       <c r="I304" s="9"/>
@@ -9341,13 +9358,15 @@
         <v>45139</v>
       </c>
       <c r="B305" s="20"/>
-      <c r="C305" s="13"/>
+      <c r="C305" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D305" s="39"/>
       <c r="E305" s="9"/>
       <c r="F305" s="20"/>
-      <c r="G305" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G305" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H305" s="39"/>
       <c r="I305" s="9"/>
@@ -9359,13 +9378,15 @@
         <v>45170</v>
       </c>
       <c r="B306" s="20"/>
-      <c r="C306" s="13"/>
+      <c r="C306" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D306" s="39"/>
       <c r="E306" s="9"/>
       <c r="F306" s="20"/>
-      <c r="G306" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G306" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H306" s="39"/>
       <c r="I306" s="9"/>
@@ -9377,13 +9398,15 @@
         <v>45200</v>
       </c>
       <c r="B307" s="20"/>
-      <c r="C307" s="13"/>
+      <c r="C307" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D307" s="39"/>
       <c r="E307" s="9"/>
       <c r="F307" s="20"/>
-      <c r="G307" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G307" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H307" s="39"/>
       <c r="I307" s="9"/>
@@ -9394,19 +9417,27 @@
       <c r="A308" s="40">
         <v>45231</v>
       </c>
-      <c r="B308" s="20"/>
-      <c r="C308" s="13"/>
-      <c r="D308" s="39"/>
+      <c r="B308" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C308" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D308" s="39">
+        <v>5</v>
+      </c>
       <c r="E308" s="9"/>
       <c r="F308" s="20"/>
-      <c r="G308" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G308" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H308" s="39"/>
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
-      <c r="K308" s="20"/>
+      <c r="K308" s="62" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
@@ -9414,7 +9445,9 @@
       </c>
       <c r="B309" s="20"/>
       <c r="C309" s="13"/>
-      <c r="D309" s="39"/>
+      <c r="D309" s="39" t="s">
+        <v>92</v>
+      </c>
       <c r="E309" s="9"/>
       <c r="F309" s="20"/>
       <c r="G309" s="13" t="str">
